--- a/input/EUROMODpolicySchedule.xlsx
+++ b/input/EUROMODpolicySchedule.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim_Italy\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F0610D-9867-49D9-9F5B-A4E2213BB68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30DC795-FFEE-4DEC-A602-50E5F4401812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="20400" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="3120" windowWidth="28800" windowHeight="15105" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IT" sheetId="1" r:id="rId1"/>
     <sheet name="UK" sheetId="2" r:id="rId2"/>
+    <sheet name="HU" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17312" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="59">
   <si>
     <t>Filename</t>
   </si>
@@ -151,54 +152,6 @@
     <t>2024</t>
   </si>
   <si>
-    <t>uk_2021_10_std.txt</t>
-  </si>
-  <si>
-    <t>uk_2022_10_std.txt</t>
-  </si>
-  <si>
-    <t>uk_2023_10_std.txt</t>
-  </si>
-  <si>
-    <t>uk_2024_10_std.txt</t>
-  </si>
-  <si>
-    <t>uk_2010_std.txt</t>
-  </si>
-  <si>
-    <t>hscl_uk_2017_std.txt</t>
-  </si>
-  <si>
-    <t>hscl_uk_2018_std.txt</t>
-  </si>
-  <si>
-    <t>hscl_uk_2019_std.txt</t>
-  </si>
-  <si>
-    <t>hscl_uk_2020_std.txt</t>
-  </si>
-  <si>
-    <t>hscl_uk_2021_std.txt</t>
-  </si>
-  <si>
-    <t>hscl_uk_2022_std.txt</t>
-  </si>
-  <si>
-    <t>hscl_uk_2023_std.txt</t>
-  </si>
-  <si>
-    <t>hscl_uk_2024_std.txt</t>
-  </si>
-  <si>
-    <t>uk_2022_nohscl_std.txt</t>
-  </si>
-  <si>
-    <t>uk_2023_nohscl_std.txt</t>
-  </si>
-  <si>
-    <t>uk_2024_nohscl_std.txt</t>
-  </si>
-  <si>
     <t>uk_2025_std.txt</t>
   </si>
   <si>
@@ -209,6 +162,48 @@
   </si>
   <si>
     <t>2026</t>
+  </si>
+  <si>
+    <t>hu_2011_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2012_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2013_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2014_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2015_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2016_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2017_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2018_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2019_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2020_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2021_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2022_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2023_std.txt</t>
+  </si>
+  <si>
+    <t>hu_2024_std.txt</t>
   </si>
 </sst>
 </file>
@@ -265,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,7 +300,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -411,7 +406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,15 +558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="14.0" collapsed="true"/>
     <col min="4" max="1026" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -697,6 +691,264 @@
     <col min="2" max="1025" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D4ABE4-FC1F-4DB5-8A44-905513CD2A8E}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="1025" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
@@ -713,7 +965,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -727,7 +979,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -741,7 +993,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -755,7 +1007,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -769,7 +1021,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -783,7 +1035,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -797,7 +1049,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -811,7 +1063,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -825,7 +1077,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -839,7 +1091,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -853,7 +1105,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -867,7 +1119,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -881,7 +1133,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -895,7 +1147,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -909,13 +1161,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -923,15 +1175,267 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
         <v>19</v>
       </c>
     </row>

--- a/input/EUROMODpolicySchedule.xlsx
+++ b/input/EUROMODpolicySchedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="59">
   <si>
     <t>Filename</t>
   </si>

--- a/input/EUROMODpolicySchedule.xlsx
+++ b/input/EUROMODpolicySchedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="59">
   <si>
     <t>Filename</t>
   </si>

--- a/input/EUROMODpolicySchedule.xlsx
+++ b/input/EUROMODpolicySchedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="59">
   <si>
     <t>Filename</t>
   </si>
@@ -937,7 +937,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D4ABE4-FC1F-4DB5-8A44-905513CD2A8E}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1159,286 +1159,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/input/EUROMODpolicySchedule.xlsx
+++ b/input/EUROMODpolicySchedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="33">
   <si>
     <t>Filename</t>
   </si>

--- a/input/EUROMODpolicySchedule.xlsx
+++ b/input/EUROMODpolicySchedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="33">
   <si>
     <t>Filename</t>
   </si>

--- a/input/EUROMODpolicySchedule.xlsx
+++ b/input/EUROMODpolicySchedule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="33">
   <si>
     <t>Filename</t>
   </si>

--- a/input/EUROMODpolicySchedule.xlsx
+++ b/input/EUROMODpolicySchedule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="51">
   <si>
     <t>Filename</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>2027</t>
+  </si>
+  <si>
+    <t>uk_2028_std.txt</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>uk_2029_std.txt</t>
+  </si>
+  <si>
+    <t>2029</t>
   </si>
 </sst>
 </file>
@@ -642,7 +654,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CC6207-DD24-427A-A7C5-E1B68985A6D0}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -673,10 +685,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -687,10 +699,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -701,10 +713,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -715,10 +727,10 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -743,10 +755,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -757,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -771,10 +783,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -799,10 +811,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -813,10 +825,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -827,10 +839,10 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -841,10 +853,10 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -855,10 +867,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -869,10 +881,10 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -883,12 +895,54 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
